--- a/CreateML Models/Cost Savings Test.xlsx
+++ b/CreateML Models/Cost Savings Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10711"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/skhiearth/Desktop/SolarX/CreateML Models/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAE0522-7E53-4B48-8119-CA54ACC97DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAF5B0F7-C43D-A848-8655-4D6A0632BCAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10580" yWindow="460" windowWidth="18220" windowHeight="16260" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
+    <workbookView xWindow="10580" yWindow="500" windowWidth="18220" windowHeight="16260" xr2:uid="{5BC59F8A-A70D-FB4E-8581-B9F15738DFB6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Total Roof Top Area (in Sq. m.)</t>
   </si>
@@ -37,6 +37,9 @@
   </si>
   <si>
     <t>Average Solar Irridation (W/sq.m)</t>
+  </si>
+  <si>
+    <t>Roof Area</t>
   </si>
 </sst>
 </file>
@@ -391,21 +394,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E51577D-795A-1443-BB9A-6DEBA71589C2}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9.5" customWidth="1"/>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.5" customWidth="1"/>
+    <col min="2" max="3" width="13.5" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="63" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -413,13 +416,16 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>100</v>
       </c>
@@ -427,13 +433,17 @@
         <v>30</v>
       </c>
       <c r="C2">
+        <f>(A2*B2)/100</f>
+        <v>30</v>
+      </c>
+      <c r="D2">
         <v>1046.26</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>2460</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>95</v>
       </c>
@@ -441,13 +451,17 @@
         <v>50</v>
       </c>
       <c r="C3">
+        <f t="shared" ref="C3:C10" si="0">(A3*B3)/100</f>
+        <v>47.5</v>
+      </c>
+      <c r="D3">
         <v>1156.3900000000001</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4416</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>40</v>
       </c>
@@ -455,13 +469,17 @@
         <v>45</v>
       </c>
       <c r="C4">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D4">
         <v>1156.3900000000001</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>1656</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>60</v>
       </c>
@@ -469,13 +487,17 @@
         <v>33</v>
       </c>
       <c r="C5">
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="D5">
         <v>1156.3900000000001</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>1840</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>85</v>
       </c>
@@ -483,13 +505,17 @@
         <v>69</v>
       </c>
       <c r="C6">
+        <f t="shared" si="0"/>
+        <v>58.65</v>
+      </c>
+      <c r="D6">
         <v>1046.26</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>4838</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>500</v>
       </c>
@@ -497,13 +523,17 @@
         <v>20</v>
       </c>
       <c r="C7">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="D7">
         <v>1156.3900000000001</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>9200</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>500</v>
       </c>
@@ -511,13 +541,17 @@
         <v>25</v>
       </c>
       <c r="C8">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+      <c r="D8">
         <v>1266.52</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>12500</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>500</v>
       </c>
@@ -525,13 +559,17 @@
         <v>35</v>
       </c>
       <c r="C9">
+        <f t="shared" si="0"/>
+        <v>175</v>
+      </c>
+      <c r="D9">
         <v>1046.26</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>14350</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>40</v>
       </c>
@@ -539,13 +577,17 @@
         <v>20</v>
       </c>
       <c r="C10">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D10">
         <v>1156.3900000000001</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>736</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>40</v>
       </c>
@@ -553,9 +595,13 @@
         <v>30</v>
       </c>
       <c r="C11">
+        <f>(A11*B11)/100</f>
+        <v>12</v>
+      </c>
+      <c r="D11">
         <v>1266.52</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>1200</v>
       </c>
     </row>
